--- a/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heck. I will go ahead and call the hearing to order. Good afternoon, everyone.    Today's subcommittee meets to hear testimony on military treatment facilities, or MTFs, which are the medical centers, hospitals, and clinics that are owned and operated by the Department of Defense and the military services.    For decades, military treatment facilities have been recognized as the foundation of military medical care. They are the primary location for Active Duty military to receive treatment and are the training and education platforms for medical providers worldwide.    Every member of the military healthcare team, me included, has spent time in MTFs. If you have served in the military, chances are you have received care in an MTF for everything from immunizations, to routine health screenings prior to deploying, to witnessing the birth of your child. Depending on the size and location, MTFs provide a wide range of medical services to Active Duty, Active Duty family members, retirees, and retiree family members.    However, military health care, alongside civilian health care, has evolved, and we have seen many changes to MTFs. The certainty that a military installation will have a full-service medical facility is a thing of the past. For example, in 1989, there were more than 500 military medical facilities worldwide, 168 military hospitals and hundreds of clinics. Today, there are 55 hospitals and 360 clinics, for a total of 415 MTFs. Large medical centers, such as Fitzsimons Army Medical Center, once considered an enduring capability, have closed.    The reasons for some of these changes are varied. Health care has largely shifted from an inpatient focus to outpatient settings such as ambulatory surgery and care models such as patient-centered medical homes. Another reason unique to military medicine is the realignment of troop units and closure of military installations, which has shifted the need for medical care among different locations.    So the question we now ask is: What is the future of military treatment facilities? How do they maintain the primary mission of readiness of the force and ready medical professionals? Are MTFs currently situated to support the readiness mission along with the mission to provide care to their beneficiaries?    I am interested to hear from our witnesses about the challenges of running an MTF. How are MTFs different than civilian medical facilities? How does MTF leadership balance readiness requirements and the needs of the beneficiary population, including service members, family members, and retirees?    And, finally, what can we do to ensure the Military Health System has trained and ready providers to support the readiness of the force and provide a valued health benefit to our beneficiaries?    With that, I want to welcome our witnesses, and I look forward to their testimony.    Before I introduce our panel, I would like to offer Congresswoman Susan Davis, our ranking member from San Diego, an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 37.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I also want to welcome our witnesses, and thank you very much for joining us today.    You know, over the past several months, we have met with senior leaders in military medicine who have discussed the policies of providing health care to the force and their families, and we have also heard from beneficiary organizations that represent those on the receiving end of healthcare services.    So today we have this unique opportunity to meet with the four of you, the military treatment facility commanders, three words, but they are all really important, all separate--who execute the policies, interact with the military providers as well as the beneficiaries affected by those policies and healthcare services.    So I look forward to our discussion and hearing from each of you how you balance the requirements of maintaining medical readiness for your providers while providing access to quality health care for your beneficiaries and what can we do to help you in that endeavor.    Thank you all so much for being here.</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And welcome.    As you all are speaking, I am reminded of I was a recipient of treatment in a military treatment facility in my early teens, as was one of my sisters. My father was a career officer in the Air Force. And I have always appreciated the great care we received for not insignificant problems. One was in an MTF here in the United States, another when we were stationed abroad. And in both places, we got such great care. So I thank you for that, as a family member. And I am sure, as we certainly hear from our military families, how important that is.    I do have a question related to the fact, the ever-growing numbers of women that are now currently serving in the Active Duty. And I am curious, as this population is increasing, how well able you feel you are able to serve them as they are in this Active Duty status. And are there shortcomings and ways in which we could be more helpful?    And I will start with you, Colonel Heimall.    Colonel Heimall. Ma'am, I think we have had about a 10-year head start on some of the other Federal systems in how we manage women's health. Within Walter Reed, we have a women's health clinic, and there is a range of programs that are available. But we also have the luxury of having an obstetrics and gynecology residency program that allows us to provide a higher level of care for women who are serving, as well as for retirees and the veterans that come to us.    I think one of the gaps that we have right now--and it is a matter of developing it, and we have just started developing the program about 6 months ago at Walter Reed, is a trauma program for women who are suffering from, and men--who are suffering from sexual assault trauma. While trauma is the same from an emotional standpoint, the way we manage that within groups and the therapy we provide really needs a different touch. And so creating an intensive outpatient program for victims of sexual assault is really, I think, a needed service as we go across MTF to MTF.</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Thank you to the panelists for your service today and the sacrifice of your families.    On Fort Drum, which is an Army installation that I represent in my district, we have a clinic as opposed to a hospital on post. Guthrie Army Health Clinic and the MEDDAC [Medical Department Activity] that oversees it supports over 14,000 Active Duty soldiers and 16,000 military family members. Due to this unique relationship, the MEDDAC at Fort Drum partners with the community to ensure that the highest quality of care is provided to all patients.    So I wanted to turn to Colonel Littlefield.    What are some of the unique challenges you have faced while partnering with civilian provider networks for services that you are unable to provide? And would you consider a model similar to what you have at Little Rock Air Force Base to be as efficient as other installations that have full hospitals with inpatient care on post?    Colonel Littlefield. Thank you, ma'am.    I think the opportunity is, or the word is ``balance,'' too. It is something, when we are looking at access, again, a clinic compared to a bedded facility and what we offer, we are in constant communication with our community partners. Some people don't consider Little Rock as robust, but that is one of the things that I have found. Their civilian network is quite robust. Now, there are some specialty areas, particularly when you get in the pediatric ranges, some of the mental health services that need to be provided, there are long wait times there. But, overall, I have been very pleased with the availability of services.    But we partner with them. We do things from holding provider collaborations every year to invite our partners in, meeting with them, developing relationships. We have been able to send some of our providers down to the Arkansas Heart Hospital, seeing open heart procedures and those types of events.    So we are always looking for opportunities to partner. And I think with us being the only Active Duty facility in the State of Arkansas, that is where we are headed, is that we need that partnership for those things that we can't provide. We will capture everything we can, bring it into our facility to keep the skills up of our team members, but we rely on our community partners.</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    And I want to thank each of you for your testimony and your answers to our questions.    And, Colonel Heimall, I would just like to thank you, especially, for your service, because I am most familiar with it, when you were the commander at William Beaumont Army Medical Center. And during that time, when you were both commander and I was the Representative for the area, I probably had 40 public townhall meetings, you know, where everyone was invited, no holds barred, any issue or topic, and you were there at every single one of them, whether Army Medicine or veteran care was the subject or not. And I think that sends a very powerful message to the community about your interest and involvement in the community at large, especially veterans' care as connected to Active Duty military care.    And then, to that point, you did a tremendous job working with our local VA, which is physically conjoined with William Beaumont, while overseeing a billion-dollar construction project for the new William Beaumont. So I can't thank you enough for what you have done for our community, for the veterans there, for the Active Duty military and their families.    You mentioned in your testimony the need to ensure that there is a continuum of care for Active Duty service members into the transition to civilian life when they are veterans. And, anecdotally, in El Paso, I will often encounter veterans who served at Fort Bliss, which is served by William Beaumont, who said that for their mental healthcare needs, while they were Active Duty, they were met almost without fail, without complaints. If their prescription for their PTSD required seeing a therapist once a week, they were seen once a week. And, by contrast, in the civilian world, treated by the VA, maybe they get in to see a therapist, maybe they don't get to see anyone at all. And we were later able to confirm that through a survey that found that one-third of veterans in El Paso could not receive mental health care despite trying.    So how do we fix this? If we are able to recruit and retain or make use of mental healthcare providers who are in active service and do so effectively, how do we ensure that there is consistency and continuity in that care once that service member becomes a veteran, at a time when we have, officially, 22 veterans a day taking their own lives? And I know for a fact that that level of suicide is connected to care that is delayed or denied at the VA. How do we fix this? What have you learned at Walter Reed, at William Beaumont, in collaboration with the VA, that would allow us to begin to be more effective in combating this?    Colonel Heimall. Sir, first, I want to thank you for your support and your district staff. The partnership we had there I think made my 33 months there incredibly successful and really helped me navigate a number of problems that could have derailed a lot of what we were trying to do. And that was the partnership that we had, I think, that really made that a success.    Your question is very well put. Particularly in the area of behavioral health, there are a number of areas where we have the ability, I think, to help the VA with access to care. And we certainly try to do that at Walter Reed every day. But, in El Paso, one of the areas I struggled to be able to support the VA was in primary care services and behavioral health. And I think that is true at a number of our facilities and certainly true at Walter Reed, though we do have a little more flexibility with the inpatient capabilities that we have.    There is a national shortage of behavioral health providers. It is not unique to the military, unique to the VA. I believe, nationally, we are not filling all the residency seats for psychiatry across the country. We are looking for innovative ways to grow psychology programs, internship programs, et cetera. And so we have to do something to address the supply at the national level.    We are all competing for the same providers, and often what happens is we wind up into a bidding war with the VA or with our civilian counterparts over how we retain providers. In our experience in El Paso, it was very common to have someone work for us for 2 years and then slide over to the VA for a couple of years and then come back to us 3 years later. And we have to do something to increase the pool so that we can meet the demands of our patients.</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    You each are overseeing facilities within one of the branches of our Defense Department. And I am interested whether that matters, that you stay within that particular branch, or whether all healthcare facilities within the MHS [Military Health System] could be managed together, which has been recommended.    And I would like to know, beyond parochial concerns, I would like to know why you think one or the other is more effective for our primary objectives.    And we will start with you.    Colonel Littlefield. Yes, sir. Thank you.    I think, at the end of the day, I think my panel members would agree, we are pretty much blind to who we are providing care to, as far as our sister services. We treat, you know, Marines, Navy, Army all across, even in our facility. And so I think that is the bottom line, is the provision of care and excellent care and how we do it.</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
   </si>
   <si>
     <t>412259</t>
-  </si>
-  <si>
-    <t>Jackie Speier</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Speier. Mr. Chairman, thank you.    And thank you to our panelists.    Recently, there was a study that shocked me and probably many of my colleagues, that the child abuse among members of our military is much higher than the national average. We are going to have a hearing on that, I believe.    But I am curious what is being done within the various services in terms of providing specifically mental health services in child abuse cases.    Colonel Place. So, ma'am, one of the things that we are looking at at JBLM [Joint Base Lewis-McChord] is that very fact. We actually have a higher-than-expected rate of domestic violence in our units. So General Lanza has charged several of us to figure out what to do about it and----</t>
@@ -727,11 +706,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -751,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -779,11 +754,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -805,11 +778,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -831,11 +802,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -857,11 +826,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -883,11 +850,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -909,11 +874,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -935,11 +898,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -961,11 +922,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -987,11 +946,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1013,11 +970,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1037,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1063,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1089,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1115,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1143,11 +1090,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1167,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1193,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1219,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1245,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1271,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1297,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1323,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1351,11 +1282,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1375,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1401,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1427,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1453,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1481,11 +1402,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1505,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1531,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1559,11 +1474,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1583,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1609,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1635,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1661,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1687,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1713,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1741,11 +1642,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1765,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1791,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1817,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1843,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1869,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1895,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1921,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
         <v>64</v>
-      </c>
-      <c r="H48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1949,11 +1834,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1975,11 +1858,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2001,11 +1882,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2025,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2051,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2077,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2103,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2131,11 +2002,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2155,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2181,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2207,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2233,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2259,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2287,11 +2146,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2311,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2337,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2363,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2389,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2415,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2441,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2467,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2495,11 +2338,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2521,11 +2362,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2547,11 +2386,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2573,11 +2410,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2599,11 +2434,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2623,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2649,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2675,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2701,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2727,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2755,11 +2578,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2781,11 +2602,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2807,11 +2626,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2833,11 +2650,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heck. I will go ahead and call the hearing to order. Good afternoon, everyone.    Today's subcommittee meets to hear testimony on military treatment facilities, or MTFs, which are the medical centers, hospitals, and clinics that are owned and operated by the Department of Defense and the military services.    For decades, military treatment facilities have been recognized as the foundation of military medical care. They are the primary location for Active Duty military to receive treatment and are the training and education platforms for medical providers worldwide.    Every member of the military healthcare team, me included, has spent time in MTFs. If you have served in the military, chances are you have received care in an MTF for everything from immunizations, to routine health screenings prior to deploying, to witnessing the birth of your child. Depending on the size and location, MTFs provide a wide range of medical services to Active Duty, Active Duty family members, retirees, and retiree family members.    However, military health care, alongside civilian health care, has evolved, and we have seen many changes to MTFs. The certainty that a military installation will have a full-service medical facility is a thing of the past. For example, in 1989, there were more than 500 military medical facilities worldwide, 168 military hospitals and hundreds of clinics. Today, there are 55 hospitals and 360 clinics, for a total of 415 MTFs. Large medical centers, such as Fitzsimons Army Medical Center, once considered an enduring capability, have closed.    The reasons for some of these changes are varied. Health care has largely shifted from an inpatient focus to outpatient settings such as ambulatory surgery and care models such as patient-centered medical homes. Another reason unique to military medicine is the realignment of troop units and closure of military installations, which has shifted the need for medical care among different locations.    So the question we now ask is: What is the future of military treatment facilities? How do they maintain the primary mission of readiness of the force and ready medical professionals? Are MTFs currently situated to support the readiness mission along with the mission to provide care to their beneficiaries?    I am interested to hear from our witnesses about the challenges of running an MTF. How are MTFs different than civilian medical facilities? How does MTF leadership balance readiness requirements and the needs of the beneficiary population, including service members, family members, and retirees?    And, finally, what can we do to ensure the Military Health System has trained and ready providers to support the readiness of the force and provide a valued health benefit to our beneficiaries?    With that, I want to welcome our witnesses, and I look forward to their testimony.    Before I introduce our panel, I would like to offer Congresswoman Susan Davis, our ranking member from San Diego, an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 37.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I also want to welcome our witnesses, and thank you very much for joining us today.    You know, over the past several months, we have met with senior leaders in military medicine who have discussed the policies of providing health care to the force and their families, and we have also heard from beneficiary organizations that represent those on the receiving end of healthcare services.    So today we have this unique opportunity to meet with the four of you, the military treatment facility commanders, three words, but they are all really important, all separate--who execute the policies, interact with the military providers as well as the beneficiaries affected by those policies and healthcare services.    So I look forward to our discussion and hearing from each of you how you balance the requirements of maintaining medical readiness for your providers while providing access to quality health care for your beneficiaries and what can we do to help you in that endeavor.    Thank you all so much for being here.</t>
   </si>
   <si>
@@ -109,6 +124,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And welcome.    As you all are speaking, I am reminded of I was a recipient of treatment in a military treatment facility in my early teens, as was one of my sisters. My father was a career officer in the Air Force. And I have always appreciated the great care we received for not insignificant problems. One was in an MTF here in the United States, another when we were stationed abroad. And in both places, we got such great care. So I thank you for that, as a family member. And I am sure, as we certainly hear from our military families, how important that is.    I do have a question related to the fact, the ever-growing numbers of women that are now currently serving in the Active Duty. And I am curious, as this population is increasing, how well able you feel you are able to serve them as they are in this Active Duty status. And are there shortcomings and ways in which we could be more helpful?    And I will start with you, Colonel Heimall.    Colonel Heimall. Ma'am, I think we have had about a 10-year head start on some of the other Federal systems in how we manage women's health. Within Walter Reed, we have a women's health clinic, and there is a range of programs that are available. But we also have the luxury of having an obstetrics and gynecology residency program that allows us to provide a higher level of care for women who are serving, as well as for retirees and the veterans that come to us.    I think one of the gaps that we have right now--and it is a matter of developing it, and we have just started developing the program about 6 months ago at Walter Reed, is a trauma program for women who are suffering from, and men--who are suffering from sexual assault trauma. While trauma is the same from an emotional standpoint, the way we manage that within groups and the therapy we provide really needs a different touch. And so creating an intensive outpatient program for victims of sexual assault is really, I think, a needed service as we go across MTF to MTF.</t>
   </si>
   <si>
@@ -136,6 +157,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Thank you to the panelists for your service today and the sacrifice of your families.    On Fort Drum, which is an Army installation that I represent in my district, we have a clinic as opposed to a hospital on post. Guthrie Army Health Clinic and the MEDDAC [Medical Department Activity] that oversees it supports over 14,000 Active Duty soldiers and 16,000 military family members. Due to this unique relationship, the MEDDAC at Fort Drum partners with the community to ensure that the highest quality of care is provided to all patients.    So I wanted to turn to Colonel Littlefield.    What are some of the unique challenges you have faced while partnering with civilian provider networks for services that you are unable to provide? And would you consider a model similar to what you have at Little Rock Air Force Base to be as efficient as other installations that have full hospitals with inpatient care on post?    Colonel Littlefield. Thank you, ma'am.    I think the opportunity is, or the word is ``balance,'' too. It is something, when we are looking at access, again, a clinic compared to a bedded facility and what we offer, we are in constant communication with our community partners. Some people don't consider Little Rock as robust, but that is one of the things that I have found. Their civilian network is quite robust. Now, there are some specialty areas, particularly when you get in the pediatric ranges, some of the mental health services that need to be provided, there are long wait times there. But, overall, I have been very pleased with the availability of services.    But we partner with them. We do things from holding provider collaborations every year to invite our partners in, meeting with them, developing relationships. We have been able to send some of our providers down to the Arkansas Heart Hospital, seeing open heart procedures and those types of events.    So we are always looking for opportunities to partner. And I think with us being the only Active Duty facility in the State of Arkansas, that is where we are headed, is that we need that partnership for those things that we can't provide. We will capture everything we can, bring it into our facility to keep the skills up of our team members, but we rely on our community partners.</t>
   </si>
   <si>
@@ -154,6 +181,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    And I want to thank each of you for your testimony and your answers to our questions.    And, Colonel Heimall, I would just like to thank you, especially, for your service, because I am most familiar with it, when you were the commander at William Beaumont Army Medical Center. And during that time, when you were both commander and I was the Representative for the area, I probably had 40 public townhall meetings, you know, where everyone was invited, no holds barred, any issue or topic, and you were there at every single one of them, whether Army Medicine or veteran care was the subject or not. And I think that sends a very powerful message to the community about your interest and involvement in the community at large, especially veterans' care as connected to Active Duty military care.    And then, to that point, you did a tremendous job working with our local VA, which is physically conjoined with William Beaumont, while overseeing a billion-dollar construction project for the new William Beaumont. So I can't thank you enough for what you have done for our community, for the veterans there, for the Active Duty military and their families.    You mentioned in your testimony the need to ensure that there is a continuum of care for Active Duty service members into the transition to civilian life when they are veterans. And, anecdotally, in El Paso, I will often encounter veterans who served at Fort Bliss, which is served by William Beaumont, who said that for their mental healthcare needs, while they were Active Duty, they were met almost without fail, without complaints. If their prescription for their PTSD required seeing a therapist once a week, they were seen once a week. And, by contrast, in the civilian world, treated by the VA, maybe they get in to see a therapist, maybe they don't get to see anyone at all. And we were later able to confirm that through a survey that found that one-third of veterans in El Paso could not receive mental health care despite trying.    So how do we fix this? If we are able to recruit and retain or make use of mental healthcare providers who are in active service and do so effectively, how do we ensure that there is consistency and continuity in that care once that service member becomes a veteran, at a time when we have, officially, 22 veterans a day taking their own lives? And I know for a fact that that level of suicide is connected to care that is delayed or denied at the VA. How do we fix this? What have you learned at Walter Reed, at William Beaumont, in collaboration with the VA, that would allow us to begin to be more effective in combating this?    Colonel Heimall. Sir, first, I want to thank you for your support and your district staff. The partnership we had there I think made my 33 months there incredibly successful and really helped me navigate a number of problems that could have derailed a lot of what we were trying to do. And that was the partnership that we had, I think, that really made that a success.    Your question is very well put. Particularly in the area of behavioral health, there are a number of areas where we have the ability, I think, to help the VA with access to care. And we certainly try to do that at Walter Reed every day. But, in El Paso, one of the areas I struggled to be able to support the VA was in primary care services and behavioral health. And I think that is true at a number of our facilities and certainly true at Walter Reed, though we do have a little more flexibility with the inpatient capabilities that we have.    There is a national shortage of behavioral health providers. It is not unique to the military, unique to the VA. I believe, nationally, we are not filling all the residency seats for psychiatry across the country. We are looking for innovative ways to grow psychology programs, internship programs, et cetera. And so we have to do something to address the supply at the national level.    We are all competing for the same providers, and often what happens is we wind up into a bidding war with the VA or with our civilian counterparts over how we retain providers. In our experience in El Paso, it was very common to have someone work for us for 2 years and then slide over to the VA for a couple of years and then come back to us 3 years later. And we have to do something to increase the pool so that we can meet the demands of our patients.</t>
   </si>
   <si>
@@ -166,6 +196,12 @@
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    You each are overseeing facilities within one of the branches of our Defense Department. And I am interested whether that matters, that you stay within that particular branch, or whether all healthcare facilities within the MHS [Military Health System] could be managed together, which has been recommended.    And I would like to know, beyond parochial concerns, I would like to know why you think one or the other is more effective for our primary objectives.    And we will start with you.    Colonel Littlefield. Yes, sir. Thank you.    I think, at the end of the day, I think my panel members would agree, we are pretty much blind to who we are providing care to, as far as our sister services. We treat, you know, Marines, Navy, Army all across, even in our facility. And so I think that is the bottom line, is the provision of care and excellent care and how we do it.</t>
   </si>
   <si>
@@ -188,6 +224,12 @@
   </si>
   <si>
     <t>412259</t>
+  </si>
+  <si>
+    <t>Speier</t>
+  </si>
+  <si>
+    <t>Jackie</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Speier. Mr. Chairman, thank you.    And thank you to our panelists.    Recently, there was a study that shocked me and probably many of my colleagues, that the child abuse among members of our military is much higher than the national average. We are going to have a hearing on that, I believe.    But I am curious what is being done within the various services in terms of providing specifically mental health services in child abuse cases.    Colonel Place. So, ma'am, one of the things that we are looking at at JBLM [Joint Base Lewis-McChord] is that very fact. We actually have a higher-than-expected rate of domestic violence in our units. So General Lanza has charged several of us to figure out what to do about it and----</t>
@@ -656,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +706,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1973 +728,2368 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Heck</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Tsongas</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
   </si>
   <si>
     <t>412643</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>MacArthur</t>
@@ -698,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +721,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,2365 +746,2596 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
-      </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
